--- a/check portefeuille.xlsx
+++ b/check portefeuille.xlsx
@@ -1243,9 +1243,11 @@
       <c r="CU2" t="n">
         <v>0</v>
       </c>
-      <c r="CV2" t="inlineStr"/>
+      <c r="CV2" t="n">
+        <v>0.25</v>
+      </c>
       <c r="CW2" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="3">
@@ -1616,9 +1618,11 @@
       <c r="CU3" t="n">
         <v>0</v>
       </c>
-      <c r="CV3" t="inlineStr"/>
+      <c r="CV3" t="n">
+        <v>0.25</v>
+      </c>
       <c r="CW3" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -1989,9 +1993,11 @@
       <c r="CU4" t="n">
         <v>0</v>
       </c>
-      <c r="CV4" t="inlineStr"/>
+      <c r="CV4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="CW4" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -2362,9 +2368,11 @@
       <c r="CU5" t="n">
         <v>0</v>
       </c>
-      <c r="CV5" t="inlineStr"/>
+      <c r="CV5" t="n">
+        <v>0.25</v>
+      </c>
       <c r="CW5" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">
@@ -2735,9 +2743,11 @@
       <c r="CU6" t="n">
         <v>0</v>
       </c>
-      <c r="CV6" t="inlineStr"/>
+      <c r="CV6" t="n">
+        <v>0.25</v>
+      </c>
       <c r="CW6" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="7">
@@ -3108,9 +3118,11 @@
       <c r="CU7" t="n">
         <v>0</v>
       </c>
-      <c r="CV7" t="inlineStr"/>
+      <c r="CV7" t="n">
+        <v>0.25</v>
+      </c>
       <c r="CW7" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="8">
@@ -3481,9 +3493,11 @@
       <c r="CU8" t="n">
         <v>0</v>
       </c>
-      <c r="CV8" t="inlineStr"/>
+      <c r="CV8" t="n">
+        <v>0.25</v>
+      </c>
       <c r="CW8" t="n">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/check portefeuille.xlsx
+++ b/check portefeuille.xlsx
@@ -892,10 +892,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1680</v>
+        <v>9001</v>
       </c>
       <c r="B2" t="n">
-        <v>1680</v>
+        <v>9001</v>
       </c>
       <c r="C2" t="n">
         <v>2018</v>
@@ -907,13 +907,13 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>956002</v>
+        <v>1875002</v>
       </c>
       <c r="G2" t="n">
-        <v>11117.1</v>
+        <v>11938.7</v>
       </c>
       <c r="H2" t="n">
-        <v>752.7</v>
+        <v>320</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -922,62 +922,62 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>13220.3</v>
+        <v>12576.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">GKM1995   </t>
+          <t xml:space="preserve">EKM1995   </t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P2" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">B  </t>
+          <t xml:space="preserve">G  </t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>11117.1</v>
+        <v>11938.7</v>
       </c>
       <c r="S2" t="n">
-        <v>11098.7</v>
+        <v>11921.4</v>
       </c>
       <c r="T2" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="U2" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>38261</v>
+        <v>40179</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>46660</v>
+        <v>44561</v>
       </c>
       <c r="X2" t="n">
-        <v>2027.2</v>
+        <v>1858</v>
       </c>
       <c r="Y2" t="n">
-        <v>2027.2</v>
+        <v>1765.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>1888.7</v>
+        <v>1591.8</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1840.7</v>
+        <v>1543.8</v>
       </c>
       <c r="AC2" t="n">
         <v>48</v>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    </t>
+          <t>2810</t>
         </is>
       </c>
       <c r="BX2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>X</t>
         </is>
       </c>
       <c r="BY2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve">B  </t>
         </is>
       </c>
       <c r="CA2" t="n">
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>57.4</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="CE2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CF2" t="inlineStr">
         <is>
@@ -1213,16 +1213,16 @@
         <v>7500</v>
       </c>
       <c r="CH2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CI2" s="2" t="n">
-        <v>23101</v>
+        <v>22599</v>
       </c>
       <c r="CJ2" s="2" t="n">
-        <v>38261</v>
+        <v>40179</v>
       </c>
       <c r="CK2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="CL2" t="n">
         <v>999</v>
@@ -1237,10 +1237,10 @@
         <v>409</v>
       </c>
       <c r="CP2" t="n">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="CQ2" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="CR2" t="n">
         <v>0</v>
@@ -1252,11 +1252,11 @@
       </c>
       <c r="CT2" t="inlineStr">
         <is>
-          <t>EP2.0</t>
+          <t>EP1.75</t>
         </is>
       </c>
       <c r="CU2" t="n">
-        <v>11869.8</v>
+        <v>12258.7</v>
       </c>
       <c r="CV2" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>40.5</v>
+        <v>27</v>
       </c>
       <c r="CY2" t="n">
         <v>0.07000000000000001</v>
